--- a/output/StructureDefinition-ndh-HealthcareService.xlsx
+++ b/output/StructureDefinition-ndh-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T20:37:10-04:00</t>
+    <t>2022-10-31T22:12:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -596,7 +596,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-rating}
 </t>
   </si>
   <si>
@@ -610,7 +610,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-newpatients}
 </t>
   </si>
   <si>
@@ -629,7 +629,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-delivery-method}
 </t>
   </si>
   <si>
@@ -642,7 +642,7 @@
     <t>paymentaccepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/paymentAccepted}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-paymentAccepted}
 </t>
   </si>
   <si>
@@ -655,7 +655,7 @@
     <t>requiredDocument</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/requiredDocument}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-requiredDocument}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>fundingSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/fundingSource}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-fundingSource}
 </t>
   </si>
   <si>
@@ -929,7 +929,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-via-intermediary}
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-ndh-HealthcareService.xlsx
+++ b/output/StructureDefinition-ndh-HealthcareService.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NDH HealthcareService</t>
+    <t>NDH Base HealthcareService</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:12:57-04:00</t>
+    <t>2022-11-04T11:24:16-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
